--- a/code/bestnum_results/100_silhouette_results.xlsx
+++ b/code/bestnum_results/100_silhouette_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:G233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>bestnum_algo</t>
         </is>
       </c>
@@ -470,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -483,7 +488,10 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -494,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -507,7 +515,10 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -518,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -531,7 +542,10 @@
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -542,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -555,7 +569,10 @@
       <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -566,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -579,7 +596,10 @@
       <c r="E6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -590,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -603,7 +623,10 @@
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -614,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -625,9 +648,12 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -638,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9229835773804711</v>
+        <v>0.9611950345482984</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -651,7 +677,10 @@
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -662,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -675,7 +704,10 @@
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -686,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -699,7 +731,10 @@
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -710,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -723,7 +758,10 @@
       <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -734,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -747,7 +785,10 @@
       <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -758,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -771,7 +812,10 @@
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -782,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -795,7 +839,10 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -806,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -817,9 +864,12 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -830,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8461705368495511</v>
+        <v>0.880149625935162</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -843,7 +893,10 @@
       <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -854,7 +907,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -867,7 +920,10 @@
       <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -878,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -891,7 +947,10 @@
       <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -902,7 +961,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -915,7 +974,10 @@
       <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -926,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -939,7 +1001,10 @@
       <c r="E21" t="n">
         <v>2</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -950,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -963,7 +1028,10 @@
       <c r="E22" t="n">
         <v>2</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -974,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -987,7 +1055,10 @@
       <c r="E23" t="n">
         <v>2</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -998,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1011,7 +1082,10 @@
       <c r="E24" t="n">
         <v>2</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1022,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7169934640522875</v>
+        <v>0.6509541117673783</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1035,7 +1109,10 @@
       <c r="E25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1046,7 +1123,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1059,7 +1136,10 @@
       <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>100</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1070,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1083,7 +1163,10 @@
       <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1094,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1105,9 +1188,12 @@
         <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>100</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1118,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1131,7 +1217,10 @@
       <c r="E29" t="n">
         <v>2</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1142,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1155,7 +1244,10 @@
       <c r="E30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1166,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1179,7 +1271,10 @@
       <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1190,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1201,9 +1296,12 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1214,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6261582933352543</v>
+        <v>0.6259734629982459</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1227,7 +1325,10 @@
       <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1238,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1249,9 +1350,12 @@
         <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1262,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1275,7 +1379,10 @@
       <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1286,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1299,7 +1406,10 @@
       <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1310,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1321,9 +1431,12 @@
         <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>100</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1334,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1347,7 +1460,10 @@
       <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1358,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1371,7 +1487,10 @@
       <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>100</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1382,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1393,9 +1512,12 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
-      </c>
-      <c r="F40" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1406,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9173683882235529</v>
+        <v>0.4832848567361842</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1419,7 +1541,10 @@
       <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1430,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1438,12 +1563,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>100</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1454,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1462,12 +1590,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>100</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1478,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1486,12 +1617,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>100</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1502,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1510,12 +1644,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="n">
+        <v>100</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1526,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1534,12 +1671,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1550,7 +1690,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1558,12 +1698,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>3</v>
-      </c>
-      <c r="F47" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1574,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1582,12 +1725,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>100</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1598,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9273456012428931</v>
+        <v>0.3800827363535466</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1606,12 +1752,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
-      </c>
-      <c r="F49" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1622,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1635,7 +1784,10 @@
       <c r="E50" t="n">
         <v>3</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1646,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1659,7 +1811,10 @@
       <c r="E51" t="n">
         <v>3</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="n">
+        <v>100</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1670,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1683,7 +1838,10 @@
       <c r="E52" t="n">
         <v>3</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="n">
+        <v>100</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1694,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1705,9 +1863,12 @@
         <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1718,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1731,7 +1892,10 @@
       <c r="E54" t="n">
         <v>3</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1742,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1755,7 +1919,10 @@
       <c r="E55" t="n">
         <v>3</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="n">
+        <v>100</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1766,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1777,9 +1944,12 @@
         <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
-      </c>
-      <c r="F56" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1790,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8395851706679732</v>
+        <v>0.9441750991395903</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1803,7 +1973,10 @@
       <c r="E57" t="n">
         <v>3</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="n">
+        <v>100</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1814,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1827,7 +2000,10 @@
       <c r="E58" t="n">
         <v>3</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="n">
+        <v>100</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1838,7 +2014,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1851,7 +2027,10 @@
       <c r="E59" t="n">
         <v>3</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1862,7 +2041,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1875,7 +2054,10 @@
       <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="n">
+        <v>100</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1886,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1899,7 +2081,10 @@
       <c r="E61" t="n">
         <v>2</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="n">
+        <v>100</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1910,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1923,7 +2108,10 @@
       <c r="E62" t="n">
         <v>3</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="n">
+        <v>100</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1934,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1947,7 +2135,10 @@
       <c r="E63" t="n">
         <v>3</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="n">
+        <v>100</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1958,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1969,9 +2160,12 @@
         <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
-      </c>
-      <c r="F64" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>100</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -1982,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7202723471463208</v>
+        <v>0.8840973667735081</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1995,7 +2189,10 @@
       <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2006,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="B66" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2019,7 +2216,10 @@
       <c r="E66" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="n">
+        <v>100</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2030,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="B67" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2043,7 +2243,10 @@
       <c r="E67" t="n">
         <v>3</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="n">
+        <v>100</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2054,7 +2257,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2065,9 +2268,12 @@
         <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2078,7 +2284,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2089,9 +2295,12 @@
         <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>100</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2102,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2115,7 +2324,10 @@
       <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2126,7 +2338,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2139,7 +2351,10 @@
       <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2150,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2161,9 +2376,12 @@
         <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
-      </c>
-      <c r="F72" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>100</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2174,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="B73" t="n">
-        <v>0.657610464512151</v>
+        <v>0.6700209386068862</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2187,7 +2405,10 @@
       <c r="E73" t="n">
         <v>3</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="n">
+        <v>100</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2198,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2211,7 +2432,10 @@
       <c r="E74" t="n">
         <v>3</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2222,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2233,9 +2457,12 @@
         <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
-      </c>
-      <c r="F75" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>100</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2246,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2257,9 +2484,12 @@
         <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2270,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2281,9 +2511,12 @@
         <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
-      </c>
-      <c r="F77" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2294,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2305,9 +2538,12 @@
         <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2318,7 +2554,7 @@
         <v>9</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2329,9 +2565,12 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
-      </c>
-      <c r="F79" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2342,7 +2581,7 @@
         <v>9</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2353,9 +2592,12 @@
         <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
-      </c>
-      <c r="F80" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2366,7 +2608,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3664147785054102</v>
+        <v>0.5800438207430009</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2379,7 +2621,10 @@
       <c r="E81" t="n">
         <v>3</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="n">
+        <v>100</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2387,10 +2632,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2398,12 +2643,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2411,10 +2659,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2422,12 +2670,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
-      </c>
-      <c r="F83" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2435,10 +2686,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2446,12 +2697,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
-      </c>
-      <c r="F84" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2459,10 +2713,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2470,12 +2724,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
-      </c>
-      <c r="F85" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2483,10 +2740,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2494,12 +2751,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
-      </c>
-      <c r="F86" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F86" t="n">
+        <v>100</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2507,10 +2767,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2518,12 +2778,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
         <v>3</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="n">
+        <v>100</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2531,10 +2794,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2542,12 +2805,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>100</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2555,10 +2821,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9077562668935144</v>
+        <v>0.5261809767472373</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2566,12 +2832,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="n">
+        <v>100</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2579,10 +2848,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2595,7 +2864,10 @@
       <c r="E90" t="n">
         <v>4</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="n">
+        <v>100</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2603,10 +2875,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2619,7 +2891,10 @@
       <c r="E91" t="n">
         <v>4</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="n">
+        <v>100</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2627,10 +2902,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2643,7 +2918,10 @@
       <c r="E92" t="n">
         <v>4</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="n">
+        <v>100</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2651,10 +2929,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2667,7 +2945,10 @@
       <c r="E93" t="n">
         <v>4</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="n">
+        <v>100</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2675,10 +2956,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2691,7 +2972,10 @@
       <c r="E94" t="n">
         <v>4</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="n">
+        <v>100</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2699,10 +2983,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2715,7 +2999,10 @@
       <c r="E95" t="n">
         <v>4</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="n">
+        <v>100</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2723,10 +3010,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2737,9 +3024,12 @@
         <v>4</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
-      </c>
-      <c r="F96" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2747,10 +3037,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8596727571194058</v>
+        <v>0.9243279602181284</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2763,7 +3053,10 @@
       <c r="E97" t="n">
         <v>3</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="n">
+        <v>100</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2771,10 +3064,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2785,9 +3078,12 @@
         <v>4</v>
       </c>
       <c r="E98" t="n">
-        <v>4</v>
-      </c>
-      <c r="F98" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F98" t="n">
+        <v>100</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2795,10 +3091,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2809,9 +3105,12 @@
         <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
-      </c>
-      <c r="F99" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>100</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2819,10 +3118,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2833,9 +3132,12 @@
         <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
-      </c>
-      <c r="F100" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>100</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2843,10 +3145,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2859,7 +3161,10 @@
       <c r="E101" t="n">
         <v>3</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="n">
+        <v>100</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2867,10 +3172,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2881,9 +3186,12 @@
         <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>100</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2891,10 +3199,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2907,7 +3215,10 @@
       <c r="E103" t="n">
         <v>4</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F103" t="n">
+        <v>100</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2915,10 +3226,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2929,9 +3240,12 @@
         <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>100</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2939,10 +3253,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8176113007694168</v>
+        <v>0.8225774179599811</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2955,7 +3269,10 @@
       <c r="E105" t="n">
         <v>3</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" t="n">
+        <v>100</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2963,10 +3280,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2979,7 +3296,10 @@
       <c r="E106" t="n">
         <v>3</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" t="n">
+        <v>100</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -2987,10 +3307,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3001,9 +3321,12 @@
         <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
-      </c>
-      <c r="F107" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>100</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3011,10 +3334,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3027,7 +3350,10 @@
       <c r="E108" t="n">
         <v>3</v>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" t="n">
+        <v>100</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3035,10 +3361,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3051,7 +3377,10 @@
       <c r="E109" t="n">
         <v>3</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" t="n">
+        <v>100</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3059,10 +3388,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3073,9 +3402,12 @@
         <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
-      </c>
-      <c r="F110" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>100</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3083,10 +3415,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3097,9 +3429,12 @@
         <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
-      </c>
-      <c r="F111" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3107,10 +3442,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3121,9 +3456,12 @@
         <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
-      </c>
-      <c r="F112" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>100</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3131,10 +3469,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" t="n">
-        <v>0.6068361031434204</v>
+        <v>0.8708523630353371</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3147,7 +3485,10 @@
       <c r="E113" t="n">
         <v>3</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="F113" t="n">
+        <v>100</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3155,10 +3496,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3171,7 +3512,10 @@
       <c r="E114" t="n">
         <v>3</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3179,10 +3523,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3193,9 +3537,12 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
-      </c>
-      <c r="F115" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3203,10 +3550,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3217,9 +3564,12 @@
         <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
-      </c>
-      <c r="F116" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3227,10 +3577,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B117" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3243,7 +3593,10 @@
       <c r="E117" t="n">
         <v>3</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" t="n">
+        <v>100</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3251,10 +3604,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3265,9 +3618,12 @@
         <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
-      </c>
-      <c r="F118" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>100</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3275,10 +3631,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3289,9 +3645,12 @@
         <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
-      </c>
-      <c r="F119" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>100</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3299,10 +3658,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3313,9 +3672,12 @@
         <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
-      </c>
-      <c r="F120" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>100</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3323,10 +3685,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4811422413793105</v>
+        <v>0.6429941476238695</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3339,7 +3701,10 @@
       <c r="E121" t="n">
         <v>3</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" t="n">
+        <v>100</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3347,10 +3712,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3358,12 +3723,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
-      </c>
-      <c r="F122" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>100</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3371,10 +3739,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3382,12 +3750,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>5</v>
-      </c>
-      <c r="F123" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3395,10 +3766,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3406,12 +3777,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3419,10 +3793,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3430,12 +3804,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
-      </c>
-      <c r="F125" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>100</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3443,10 +3820,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3454,12 +3831,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
-        <v>5</v>
-      </c>
-      <c r="F126" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>100</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3467,10 +3847,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3478,12 +3858,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
-      </c>
-      <c r="F127" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>100</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3491,10 +3874,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3502,12 +3885,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
-      </c>
-      <c r="F128" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3515,10 +3901,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8971010730024502</v>
+        <v>0.587692483501414</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3526,12 +3912,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
         <v>3</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="F129" t="n">
+        <v>100</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3539,10 +3928,10 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3553,9 +3942,12 @@
         <v>5</v>
       </c>
       <c r="E130" t="n">
-        <v>2</v>
-      </c>
-      <c r="F130" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>100</v>
+      </c>
+      <c r="G130" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3563,10 +3955,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B131" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3577,9 +3969,12 @@
         <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
-      </c>
-      <c r="F131" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3587,10 +3982,10 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3601,9 +3996,12 @@
         <v>5</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
-      </c>
-      <c r="F132" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100</v>
+      </c>
+      <c r="G132" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3611,10 +4009,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3625,9 +4023,12 @@
         <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
-      </c>
-      <c r="F133" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>100</v>
+      </c>
+      <c r="G133" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3635,10 +4036,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3649,9 +4050,12 @@
         <v>5</v>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
-      </c>
-      <c r="F134" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>100</v>
+      </c>
+      <c r="G134" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3659,10 +4063,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3675,7 +4079,10 @@
       <c r="E135" t="n">
         <v>5</v>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="F135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3683,10 +4090,10 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3697,9 +4104,12 @@
         <v>5</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
-      </c>
-      <c r="F136" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100</v>
+      </c>
+      <c r="G136" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3707,10 +4117,10 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B137" t="n">
-        <v>0.8008744336623586</v>
+        <v>0.9003516342767892</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3721,9 +4131,12 @@
         <v>5</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
-      </c>
-      <c r="F137" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>100</v>
+      </c>
+      <c r="G137" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3731,10 +4144,10 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3747,7 +4160,10 @@
       <c r="E138" t="n">
         <v>3</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="F138" t="n">
+        <v>100</v>
+      </c>
+      <c r="G138" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3755,10 +4171,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3769,9 +4185,12 @@
         <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
-      </c>
-      <c r="F139" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>100</v>
+      </c>
+      <c r="G139" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3779,10 +4198,10 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3793,9 +4212,12 @@
         <v>5</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
-      </c>
-      <c r="F140" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>100</v>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3803,10 +4225,10 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3819,7 +4241,10 @@
       <c r="E141" t="n">
         <v>2</v>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="F141" t="n">
+        <v>100</v>
+      </c>
+      <c r="G141" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3827,10 +4252,10 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3841,9 +4266,12 @@
         <v>5</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
-      </c>
-      <c r="F142" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100</v>
+      </c>
+      <c r="G142" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3851,10 +4279,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3867,7 +4295,10 @@
       <c r="E143" t="n">
         <v>5</v>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="F143" t="n">
+        <v>100</v>
+      </c>
+      <c r="G143" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3875,10 +4306,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3889,9 +4320,12 @@
         <v>5</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
-      </c>
-      <c r="F144" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>100</v>
+      </c>
+      <c r="G144" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3899,10 +4333,10 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8354730297924822</v>
+        <v>0.7423506464621794</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3913,9 +4347,12 @@
         <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>4</v>
-      </c>
-      <c r="F145" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3923,10 +4360,10 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B146" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3939,7 +4376,10 @@
       <c r="E146" t="n">
         <v>3</v>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="F146" t="n">
+        <v>100</v>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3947,10 +4387,10 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3963,7 +4403,10 @@
       <c r="E147" t="n">
         <v>3</v>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="F147" t="n">
+        <v>100</v>
+      </c>
+      <c r="G147" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3971,10 +4414,10 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B148" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3985,9 +4428,12 @@
         <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
-      </c>
-      <c r="F148" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F148" t="n">
+        <v>100</v>
+      </c>
+      <c r="G148" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -3995,10 +4441,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B149" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4009,9 +4455,12 @@
         <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
-      </c>
-      <c r="F149" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>100</v>
+      </c>
+      <c r="G149" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4019,10 +4468,10 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B150" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4033,9 +4482,12 @@
         <v>5</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
-      </c>
-      <c r="F150" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>100</v>
+      </c>
+      <c r="G150" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4043,10 +4495,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B151" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4057,9 +4509,12 @@
         <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>3</v>
-      </c>
-      <c r="F151" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100</v>
+      </c>
+      <c r="G151" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4067,10 +4522,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B152" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4083,7 +4538,10 @@
       <c r="E152" t="n">
         <v>6</v>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" t="n">
+        <v>100</v>
+      </c>
+      <c r="G152" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4091,10 +4549,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5570693934058216</v>
+        <v>0.884798598206779</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4107,7 +4565,10 @@
       <c r="E153" t="n">
         <v>3</v>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" t="n">
+        <v>100</v>
+      </c>
+      <c r="G153" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4115,10 +4576,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B154" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4129,9 +4590,12 @@
         <v>5</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
-      </c>
-      <c r="F154" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>100</v>
+      </c>
+      <c r="G154" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4139,10 +4603,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4153,9 +4617,12 @@
         <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>4</v>
-      </c>
-      <c r="F155" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>100</v>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4163,10 +4630,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B156" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4177,9 +4644,12 @@
         <v>5</v>
       </c>
       <c r="E156" t="n">
-        <v>3</v>
-      </c>
-      <c r="F156" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>100</v>
+      </c>
+      <c r="G156" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4187,10 +4657,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B157" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4201,9 +4671,12 @@
         <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
-      </c>
-      <c r="F157" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>100</v>
+      </c>
+      <c r="G157" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4211,10 +4684,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B158" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4227,7 +4700,10 @@
       <c r="E158" t="n">
         <v>3</v>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F158" t="n">
+        <v>100</v>
+      </c>
+      <c r="G158" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4235,10 +4711,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B159" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4251,7 +4727,10 @@
       <c r="E159" t="n">
         <v>3</v>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="F159" t="n">
+        <v>100</v>
+      </c>
+      <c r="G159" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4259,10 +4738,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B160" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4275,7 +4754,10 @@
       <c r="E160" t="n">
         <v>3</v>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" t="n">
+        <v>100</v>
+      </c>
+      <c r="G160" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4283,10 +4765,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B161" t="n">
-        <v>0.5322995420133494</v>
+        <v>0.6099284758964997</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4299,7 +4781,10 @@
       <c r="E161" t="n">
         <v>3</v>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="F161" t="n">
+        <v>100</v>
+      </c>
+      <c r="G161" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4307,10 +4792,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4318,12 +4803,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="F162" t="n">
+        <v>100</v>
+      </c>
+      <c r="G162" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4331,10 +4819,10 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4342,12 +4830,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
-      </c>
-      <c r="F163" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>100</v>
+      </c>
+      <c r="G163" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4355,10 +4846,10 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4366,12 +4857,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E164" t="n">
-        <v>5</v>
-      </c>
-      <c r="F164" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>100</v>
+      </c>
+      <c r="G164" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4379,10 +4873,10 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4390,12 +4884,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
-      </c>
-      <c r="F165" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>100</v>
+      </c>
+      <c r="G165" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4403,10 +4900,10 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4414,12 +4911,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E166" t="n">
         <v>3</v>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="F166" t="n">
+        <v>100</v>
+      </c>
+      <c r="G166" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4427,10 +4927,10 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4438,12 +4938,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
-      </c>
-      <c r="F167" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>100</v>
+      </c>
+      <c r="G167" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4451,10 +4954,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4462,12 +4965,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E168" t="n">
-        <v>5</v>
-      </c>
-      <c r="F168" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="F168" t="n">
+        <v>100</v>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4475,10 +4981,10 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9389258549943545</v>
+        <v>0.4699448691841492</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4486,12 +4992,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E169" t="n">
         <v>3</v>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="F169" t="n">
+        <v>100</v>
+      </c>
+      <c r="G169" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4499,10 +5008,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4513,9 +5022,12 @@
         <v>6</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
-      </c>
-      <c r="F170" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100</v>
+      </c>
+      <c r="G170" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4523,10 +5035,10 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B171" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4539,7 +5051,10 @@
       <c r="E171" t="n">
         <v>2</v>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" t="n">
+        <v>100</v>
+      </c>
+      <c r="G171" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4547,10 +5062,10 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B172" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4561,9 +5076,12 @@
         <v>6</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
-      </c>
-      <c r="F172" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>100</v>
+      </c>
+      <c r="G172" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4571,10 +5089,10 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B173" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4585,9 +5103,12 @@
         <v>6</v>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
-      </c>
-      <c r="F173" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>100</v>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4595,10 +5116,10 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B174" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4609,9 +5130,12 @@
         <v>6</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
-      </c>
-      <c r="F174" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>100</v>
+      </c>
+      <c r="G174" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4619,10 +5143,10 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B175" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4635,7 +5159,10 @@
       <c r="E175" t="n">
         <v>6</v>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" t="n">
+        <v>100</v>
+      </c>
+      <c r="G175" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4643,10 +5170,10 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B176" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4657,9 +5184,12 @@
         <v>6</v>
       </c>
       <c r="E176" t="n">
-        <v>6</v>
-      </c>
-      <c r="F176" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>100</v>
+      </c>
+      <c r="G176" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4667,10 +5197,10 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B177" t="n">
-        <v>0.8484024677020998</v>
+        <v>0.914868598168438</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4681,9 +5211,12 @@
         <v>6</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
-      </c>
-      <c r="F177" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>100</v>
+      </c>
+      <c r="G177" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4691,10 +5224,10 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B178" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4707,7 +5240,10 @@
       <c r="E178" t="n">
         <v>3</v>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F178" t="n">
+        <v>100</v>
+      </c>
+      <c r="G178" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4715,10 +5251,10 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B179" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4731,7 +5267,10 @@
       <c r="E179" t="n">
         <v>3</v>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F179" t="n">
+        <v>100</v>
+      </c>
+      <c r="G179" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4739,10 +5278,10 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B180" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4753,9 +5292,12 @@
         <v>6</v>
       </c>
       <c r="E180" t="n">
-        <v>4</v>
-      </c>
-      <c r="F180" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100</v>
+      </c>
+      <c r="G180" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4763,10 +5305,10 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4779,7 +5321,10 @@
       <c r="E181" t="n">
         <v>2</v>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="F181" t="n">
+        <v>100</v>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4787,10 +5332,10 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B182" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4801,9 +5346,12 @@
         <v>6</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
-      </c>
-      <c r="F182" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>100</v>
+      </c>
+      <c r="G182" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4811,10 +5359,10 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B183" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4825,9 +5373,12 @@
         <v>6</v>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
-      </c>
-      <c r="F183" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
+      </c>
+      <c r="G183" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4835,10 +5386,10 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B184" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4849,9 +5400,12 @@
         <v>6</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
-      </c>
-      <c r="F184" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>100</v>
+      </c>
+      <c r="G184" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4859,10 +5413,10 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B185" t="n">
-        <v>0.6772720280687864</v>
+        <v>0.8183344570481296</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4873,9 +5427,12 @@
         <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>3</v>
-      </c>
-      <c r="F185" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100</v>
+      </c>
+      <c r="G185" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4883,10 +5440,10 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B186" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4899,7 +5456,10 @@
       <c r="E186" t="n">
         <v>3</v>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" t="n">
+        <v>100</v>
+      </c>
+      <c r="G186" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4907,10 +5467,10 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B187" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4923,7 +5483,10 @@
       <c r="E187" t="n">
         <v>3</v>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="F187" t="n">
+        <v>100</v>
+      </c>
+      <c r="G187" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4931,10 +5494,10 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4947,7 +5510,10 @@
       <c r="E188" t="n">
         <v>3</v>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="F188" t="n">
+        <v>100</v>
+      </c>
+      <c r="G188" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4955,10 +5521,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4969,9 +5535,12 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>3</v>
-      </c>
-      <c r="F189" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F189" t="n">
+        <v>100</v>
+      </c>
+      <c r="G189" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -4979,10 +5548,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B190" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4995,7 +5564,10 @@
       <c r="E190" t="n">
         <v>3</v>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="F190" t="n">
+        <v>100</v>
+      </c>
+      <c r="G190" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5003,10 +5575,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B191" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5017,9 +5589,12 @@
         <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>6</v>
-      </c>
-      <c r="F191" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F191" t="n">
+        <v>100</v>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5027,10 +5602,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B192" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5041,9 +5616,12 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>5</v>
-      </c>
-      <c r="F192" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>100</v>
+      </c>
+      <c r="G192" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5051,10 +5629,10 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B193" t="n">
-        <v>0.8666056500017434</v>
+        <v>0.6296556182998543</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5065,9 +5643,12 @@
         <v>6</v>
       </c>
       <c r="E193" t="n">
-        <v>5</v>
-      </c>
-      <c r="F193" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>100</v>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5075,10 +5656,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B194" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5089,9 +5670,12 @@
         <v>6</v>
       </c>
       <c r="E194" t="n">
-        <v>3</v>
-      </c>
-      <c r="F194" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100</v>
+      </c>
+      <c r="G194" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5099,10 +5683,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B195" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5113,9 +5697,12 @@
         <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>3</v>
-      </c>
-      <c r="F195" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>100</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5123,10 +5710,10 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5137,9 +5724,12 @@
         <v>6</v>
       </c>
       <c r="E196" t="n">
-        <v>3</v>
-      </c>
-      <c r="F196" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100</v>
+      </c>
+      <c r="G196" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5147,10 +5737,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5161,9 +5751,12 @@
         <v>6</v>
       </c>
       <c r="E197" t="n">
-        <v>3</v>
-      </c>
-      <c r="F197" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>100</v>
+      </c>
+      <c r="G197" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5171,10 +5764,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B198" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5185,9 +5778,12 @@
         <v>6</v>
       </c>
       <c r="E198" t="n">
-        <v>3</v>
-      </c>
-      <c r="F198" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100</v>
+      </c>
+      <c r="G198" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5195,10 +5791,10 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B199" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5211,7 +5807,10 @@
       <c r="E199" t="n">
         <v>3</v>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F199" t="n">
+        <v>100</v>
+      </c>
+      <c r="G199" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5219,10 +5818,10 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B200" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5233,9 +5832,12 @@
         <v>6</v>
       </c>
       <c r="E200" t="n">
-        <v>4</v>
-      </c>
-      <c r="F200" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100</v>
+      </c>
+      <c r="G200" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5243,10 +5845,10 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B201" t="n">
-        <v>0.7915758736538033</v>
+        <v>0.9435465551385481</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5257,9 +5859,12 @@
         <v>6</v>
       </c>
       <c r="E201" t="n">
-        <v>3</v>
-      </c>
-      <c r="F201" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5267,10 +5872,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5283,7 +5888,10 @@
       <c r="E202" t="n">
         <v>3</v>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="F202" t="n">
+        <v>100</v>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5291,10 +5899,10 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5305,9 +5913,12 @@
         <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>3</v>
-      </c>
-      <c r="F203" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F203" t="n">
+        <v>100</v>
+      </c>
+      <c r="G203" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5315,10 +5926,10 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5329,9 +5940,12 @@
         <v>6</v>
       </c>
       <c r="E204" t="n">
-        <v>3</v>
-      </c>
-      <c r="F204" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F204" t="n">
+        <v>100</v>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5339,10 +5953,10 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5355,7 +5969,10 @@
       <c r="E205" t="n">
         <v>2</v>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F205" t="n">
+        <v>100</v>
+      </c>
+      <c r="G205" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5363,10 +5980,10 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5377,9 +5994,12 @@
         <v>6</v>
       </c>
       <c r="E206" t="n">
-        <v>4</v>
-      </c>
-      <c r="F206" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100</v>
+      </c>
+      <c r="G206" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5387,10 +6007,10 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B207" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5401,9 +6021,12 @@
         <v>6</v>
       </c>
       <c r="E207" t="n">
-        <v>2</v>
-      </c>
-      <c r="F207" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F207" t="n">
+        <v>100</v>
+      </c>
+      <c r="G207" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5411,10 +6034,10 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B208" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5425,9 +6048,12 @@
         <v>6</v>
       </c>
       <c r="E208" t="n">
-        <v>2</v>
-      </c>
-      <c r="F208" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100</v>
+      </c>
+      <c r="G208" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5435,10 +6061,10 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B209" t="n">
-        <v>0.5767316727357593</v>
+        <v>0.8227210311736343</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5451,7 +6077,10 @@
       <c r="E209" t="n">
         <v>3</v>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="F209" t="n">
+        <v>100</v>
+      </c>
+      <c r="G209" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5459,10 +6088,10 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B210" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5475,7 +6104,10 @@
       <c r="E210" t="n">
         <v>3</v>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" t="n">
+        <v>100</v>
+      </c>
+      <c r="G210" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5483,10 +6115,10 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5499,7 +6131,10 @@
       <c r="E211" t="n">
         <v>3</v>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="F211" t="n">
+        <v>100</v>
+      </c>
+      <c r="G211" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5507,10 +6142,10 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5521,9 +6156,12 @@
         <v>6</v>
       </c>
       <c r="E212" t="n">
-        <v>2</v>
-      </c>
-      <c r="F212" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F212" t="n">
+        <v>100</v>
+      </c>
+      <c r="G212" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5531,10 +6169,10 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5545,9 +6183,12 @@
         <v>6</v>
       </c>
       <c r="E213" t="n">
-        <v>2</v>
-      </c>
-      <c r="F213" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="F213" t="n">
+        <v>100</v>
+      </c>
+      <c r="G213" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5555,10 +6196,10 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5571,7 +6212,10 @@
       <c r="E214" t="n">
         <v>3</v>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="F214" t="n">
+        <v>100</v>
+      </c>
+      <c r="G214" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5579,10 +6223,10 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5595,7 +6239,10 @@
       <c r="E215" t="n">
         <v>3</v>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="F215" t="n">
+        <v>100</v>
+      </c>
+      <c r="G215" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5603,10 +6250,10 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5617,9 +6264,12 @@
         <v>6</v>
       </c>
       <c r="E216" t="n">
-        <v>2</v>
-      </c>
-      <c r="F216" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5627,10 +6277,10 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5862037856383074</v>
+        <v>0.5667276285766693</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5643,7 +6293,10 @@
       <c r="E217" t="n">
         <v>3</v>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="F217" t="n">
+        <v>100</v>
+      </c>
+      <c r="G217" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5651,10 +6304,10 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5667,7 +6320,10 @@
       <c r="E218" t="n">
         <v>3</v>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="F218" t="n">
+        <v>100</v>
+      </c>
+      <c r="G218" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5675,10 +6331,10 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5691,7 +6347,10 @@
       <c r="E219" t="n">
         <v>3</v>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="F219" t="n">
+        <v>100</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5699,10 +6358,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5713,9 +6372,12 @@
         <v>6</v>
       </c>
       <c r="E220" t="n">
-        <v>3</v>
-      </c>
-      <c r="F220" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F220" t="n">
+        <v>100</v>
+      </c>
+      <c r="G220" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5723,10 +6385,10 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B221" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5739,7 +6401,10 @@
       <c r="E221" t="n">
         <v>2</v>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F221" t="n">
+        <v>100</v>
+      </c>
+      <c r="G221" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5747,10 +6412,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B222" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5763,7 +6428,10 @@
       <c r="E222" t="n">
         <v>3</v>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="F222" t="n">
+        <v>100</v>
+      </c>
+      <c r="G222" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5771,10 +6439,10 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5787,7 +6455,10 @@
       <c r="E223" t="n">
         <v>3</v>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F223" t="n">
+        <v>100</v>
+      </c>
+      <c r="G223" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5795,10 +6466,10 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B224" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5809,9 +6480,12 @@
         <v>6</v>
       </c>
       <c r="E224" t="n">
-        <v>9</v>
-      </c>
-      <c r="F224" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100</v>
+      </c>
+      <c r="G224" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
@@ -5819,10 +6493,10 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B225" t="n">
-        <v>0.5113916015157322</v>
+        <v>0.5666199502848653</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5835,7 +6509,226 @@
       <c r="E225" t="n">
         <v>3</v>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F225" t="n">
+        <v>100</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>28</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>6</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3</v>
+      </c>
+      <c r="F226" t="n">
+        <v>100</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>28</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>100</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>28</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>3</v>
+      </c>
+      <c r="F228" t="n">
+        <v>100</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>28</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>6</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>100</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>28</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>6</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3</v>
+      </c>
+      <c r="F230" t="n">
+        <v>100</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>28</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>6</v>
+      </c>
+      <c r="E231" t="n">
+        <v>3</v>
+      </c>
+      <c r="F231" t="n">
+        <v>100</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>28</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>6</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" t="n">
+        <v>100</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>silhouette</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>28</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.4833458867448839</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>6</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3</v>
+      </c>
+      <c r="F233" t="n">
+        <v>100</v>
+      </c>
+      <c r="G233" t="inlineStr">
         <is>
           <t>silhouette</t>
         </is>
